--- a/interface/data/test_user_data.xlsx
+++ b/interface/data/test_user_data.xlsx
@@ -1,81 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AE066-2DD1-4F99-9BBA-2476DAFABB7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\腾讯课堂\interfaceAutomation\interface\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC15EE-49CF-41D7-994C-C98538B00CE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="TestUserReg" sheetId="3" r:id="rId2"/>
+    <sheet name="TestUserReg" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>expect_res</t>
+  </si>
+  <si>
+    <t>test_user_login_normal</t>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/login/</t>
+  </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>json</t>
   </si>
   <si>
     <t>{"name": "张三","password":"123456"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_login_password_wrong</t>
+  </si>
+  <si>
+    <t>{"name": "张三","password":"1234567"}</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;失败，用户名或密码错误&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>test_user_reg_normal</t>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/reg/</t>
   </si>
   <si>
     <t>{"name": "范冰冰","password":"123456"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name": "张三","password":"1234567"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_res</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_login_normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_login_password_wrong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_reg_normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_reg_exist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -86,15 +85,9 @@
     "password": "e10adc3949ba59abbe56e057f20f883e"
   }
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://115.28.108.130:5000/api/user/reg/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;h1&gt;失败，用户名或密码错误&lt;/h1&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_reg_exist</t>
   </si>
   <si>
     <t>{
@@ -105,18 +98,9 @@
     "password": "e10adc3949ba59abbe56e057f20f883e"
   }
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>args</t>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +191,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -219,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -234,20 +218,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,79 +523,84 @@
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E050231-13C2-4A34-8EC2-5BF4A8648840}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -626,68 +612,72 @@
     <col min="6" max="6" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>